--- a/biology/Neurosciences/Protocole_d'examen_linguistique_de_l'aphasie_Montréal-Toulouse/Protocole_d'examen_linguistique_de_l'aphasie_Montréal-Toulouse.xlsx
+++ b/biology/Neurosciences/Protocole_d'examen_linguistique_de_l'aphasie_Montréal-Toulouse/Protocole_d'examen_linguistique_de_l'aphasie_Montréal-Toulouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Protocole_d%27examen_linguistique_de_l%27aphasie_Montr%C3%A9al-Toulouse</t>
+          <t>Protocole_d'examen_linguistique_de_l'aphasie_Montréal-Toulouse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Protocole d'examen linguistique de l'aphasie  Montréal-Toulouse (MT – 86) est un test neuropsychologique mis au point en 1986 par Jean-Luc Nespoulous, Yves Joanette et André-Roch Lecous afin de déterminer les troubles du langage chez les adultes[1],[2]. Le MT-86 en est actuellement à sa deuxième version[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Protocole d'examen linguistique de l'aphasie  Montréal-Toulouse (MT – 86) est un test neuropsychologique mis au point en 1986 par Jean-Luc Nespoulous, Yves Joanette et André-Roch Lecous afin de déterminer les troubles du langage chez les adultes,. Le MT-86 en est actuellement à sa deuxième version.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Protocole_d%27examen_linguistique_de_l%27aphasie_Montr%C3%A9al-Toulouse</t>
+          <t>Protocole_d'examen_linguistique_de_l'aphasie_Montréal-Toulouse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Passation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce test, adapté à un public francophone et désormais lusophone[4], est composé de 19 épreuves[1],[2],[3] qui permettent d’analyser les différentes composantes du langage telles que :
-L'expression et la compréhension orale[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce test, adapté à un public francophone et désormais lusophone, est composé de 19 épreuves qui permettent d’analyser les différentes composantes du langage telles que :
+L'expression et la compréhension orale
 la dénomination
 la répétition de mots et de phrases
 la compréhension orale
@@ -523,27 +537,27 @@
 la répétition de chiffres
 l'interview dirigée
 le discours narratif
-La lecture[3]
+La lecture
 la lecture à voix haute
 la lecture de chiffres
 la lecture textuelle
-L'expression et la compréhension écrite[3]
+L'expression et la compréhension écrite
 la compréhension écrite,
 la compréhension textuelle
 la copie
 la dictée
-La motricité[3]
+La motricité
 les praxies bucco-faciales
 la manipulation d'objets
-La mémoire et l’adaptation sociale[3]
+La mémoire et l’adaptation sociale
 le questionnaire psychosocial
 la mémoire séquentielle
-La passation du test dure environ 3 heures[3].
+La passation du test dure environ 3 heures.
 Chaque tâche peut être utilisée séparément, permettant d’étaler la passation du test. 
-Cette batterie permet d'évaluer les capacités langagières à l'oral et à l'écrit chez l'adulte. Elle fut étalonnée sur une population adulte constituée de 167 sujets, hommes et femmes, âgés de 15 à 99 ans et de niveaux scolaires différents[3].
-L'imagerie cérébrale ayant montré que la perception du discours chez les aphasiques est différente, surtout quand il y a du bruit autour[5], il est important de s'assurer que le patient comprend ce qui lui est dit avant d'établir qu'il présente un déficit du langage. 
-À l'instar du Boston Diagnostic Aphasia Examination (BDAE), le MT 86 permet d'établir des profils-types de patients présentant différentes pathologies : aphasie de Broca, aphasie de conduction, aphasie amnésique, cécité verbale pure, surdité verbale pure, aphasie de Wernicke etc.[6].
-Les tâches présentes dans le MT 86 ont permis d'établir que l'accès au lexique est en relation forte avec la partie milieu-gauche et inféro-postérieure du gyrus temporal[7].
+Cette batterie permet d'évaluer les capacités langagières à l'oral et à l'écrit chez l'adulte. Elle fut étalonnée sur une population adulte constituée de 167 sujets, hommes et femmes, âgés de 15 à 99 ans et de niveaux scolaires différents.
+L'imagerie cérébrale ayant montré que la perception du discours chez les aphasiques est différente, surtout quand il y a du bruit autour, il est important de s'assurer que le patient comprend ce qui lui est dit avant d'établir qu'il présente un déficit du langage. 
+À l'instar du Boston Diagnostic Aphasia Examination (BDAE), le MT 86 permet d'établir des profils-types de patients présentant différentes pathologies : aphasie de Broca, aphasie de conduction, aphasie amnésique, cécité verbale pure, surdité verbale pure, aphasie de Wernicke etc..
+Les tâches présentes dans le MT 86 ont permis d'établir que l'accès au lexique est en relation forte avec la partie milieu-gauche et inféro-postérieure du gyrus temporal.
 </t>
         </is>
       </c>
